--- a/PDFs_experimental/MetaData.xlsx
+++ b/PDFs_experimental/MetaData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andysodeanker/Documents/Materiale_Kemi_new/Materiale_Kemi/Co-Author/ICLR/PDFs_experimental/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andysodeanker/Downloads/InOrgMatDataset/PDFs_experimental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A8D4A8-D1D1-7F47-90DC-34D50945BD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A1A66-36CB-3D4A-A782-59BAA1A0CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12660" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{26E4C037-BF76-1448-992E-3DD870856628}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Datafile</t>
   </si>
@@ -169,6 +169,33 @@
   </si>
   <si>
     <t>10.1021/acsomega.8b01613</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t>1.33</t>
   </si>
 </sst>
 </file>
@@ -221,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +263,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -551,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAA485E-46B0-0B4F-9545-40FBAD212A5C}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,8 +647,8 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
-        <v>0.8</v>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E2" s="3">
         <v>26</v>
@@ -635,8 +665,8 @@
       <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3">
-        <v>0.186</v>
+      <c r="J2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>43</v>
@@ -652,8 +682,8 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.8</v>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="3">
         <v>26</v>
@@ -670,8 +700,8 @@
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3">
-        <v>0.14299999999999999</v>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>43</v>
@@ -687,8 +717,8 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
-        <v>1.33</v>
+      <c r="D4" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E4" s="3">
         <v>28</v>
@@ -705,8 +735,8 @@
       <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3">
-        <v>0.17699999999999999</v>
+      <c r="J4" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>43</v>
@@ -722,8 +752,8 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.8</v>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="3">
         <v>25</v>
@@ -740,8 +770,8 @@
       <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3">
-        <v>0.14299999999999999</v>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>43</v>
@@ -757,8 +787,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.8</v>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="3">
         <v>27</v>
@@ -775,8 +805,8 @@
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3">
-        <v>0.14299999999999999</v>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>43</v>
@@ -792,8 +822,8 @@
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.8</v>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E7" s="3">
         <v>26</v>
@@ -810,8 +840,8 @@
       <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3">
-        <v>0.14299999999999999</v>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>43</v>
@@ -827,8 +857,8 @@
       <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.7</v>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E8" s="3">
         <v>20</v>
@@ -845,8 +875,8 @@
       <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="3">
-        <v>0.35399999999999998</v>
+      <c r="J8" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>42</v>
@@ -880,8 +910,8 @@
       <c r="I9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="3">
-        <v>0.20699999999999999</v>
+      <c r="J9" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>44</v>
@@ -915,8 +945,8 @@
       <c r="I10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="3">
-        <v>0.20699999999999999</v>
+      <c r="J10" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>44</v>
@@ -950,8 +980,8 @@
       <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="3">
-        <v>0.20699999999999999</v>
+      <c r="J11" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>44</v>
@@ -967,11 +997,11 @@
       <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>16.600000000000001</v>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F12" s="3">
         <v>19</v>
@@ -985,12 +1015,15 @@
       <c r="I12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="3">
-        <v>0.20699999999999999</v>
+      <c r="J12" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PDFs_experimental/MetaData.xlsx
+++ b/PDFs_experimental/MetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andysodeanker/Downloads/InOrgMatDataset/PDFs_experimental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A1A66-36CB-3D4A-A782-59BAA1A0CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE668ADB-2DB1-6245-9A1F-AC37C0817285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12660" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{26E4C037-BF76-1448-992E-3DD870856628}"/>
+    <workbookView xWindow="-12660" yWindow="-28300" windowWidth="51200" windowHeight="26740" xr2:uid="{26E4C037-BF76-1448-992E-3DD870856628}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t>Datafile</t>
   </si>
@@ -45,15 +45,6 @@
     <t>Liquid / solid</t>
   </si>
   <si>
-    <t>Qmin</t>
-  </si>
-  <si>
-    <t>Qmax</t>
-  </si>
-  <si>
-    <t>Qmax_inst</t>
-  </si>
-  <si>
     <t>Solid</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>Brookhaven National Laboratory</t>
   </si>
   <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
     <t>Au144PET_100K_BNL</t>
   </si>
   <si>
@@ -196,6 +184,60 @@
   </si>
   <si>
     <t>1.33</t>
+  </si>
+  <si>
+    <t>Bi2Fe4O9</t>
+  </si>
+  <si>
+    <t>CeO2</t>
+  </si>
+  <si>
+    <t>CoFe2O4</t>
+  </si>
+  <si>
+    <t>Panalytical Empyrean Series 2 diffractometer</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>W5O14</t>
+  </si>
+  <si>
+    <t>W5O14_cluster</t>
+  </si>
+  <si>
+    <t>Qmin [Å^-1]</t>
+  </si>
+  <si>
+    <t>Qmax [Å^-1]</t>
+  </si>
+  <si>
+    <t>Qmax_inst [Å^-1]</t>
+  </si>
+  <si>
+    <t>Wavelength [Å]</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>CIFFinder</t>
   </si>
 </sst>
 </file>
@@ -227,12 +269,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +635,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,42 +664,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3">
         <v>26</v>
@@ -657,33 +708,33 @@
         <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3">
         <v>26</v>
@@ -692,33 +743,33 @@
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
         <v>28</v>
@@ -727,33 +778,33 @@
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>25</v>
@@ -762,33 +813,33 @@
         <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3">
         <v>27</v>
@@ -797,33 +848,33 @@
         <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <v>26</v>
@@ -832,33 +883,33 @@
         <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3">
         <v>20</v>
@@ -867,30 +918,30 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -902,30 +953,30 @@
         <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -937,30 +988,30 @@
         <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -972,54 +1023,194 @@
         <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3">
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="E15" s="3">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
